--- a/インフラネットワーク構成説明/インフラネットワーク構成図.xlsx
+++ b/インフラネットワーク構成説明/インフラネットワーク構成図.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishidayuki/Desktop/気象データ明細出力_システム全容doc/インフラネットワーク構成説明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15384E81-1B4B-6B40-B457-8E36EAADCC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A27AA2-011A-FD4D-9044-6C53BEB57280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,16 +68,6 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>ナセィ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・バックエンドシステム：画面を持たない、DBありのシステム</t>
-    <rPh sb="12" eb="14">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モタナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -163,50 +153,6 @@
   </si>
   <si>
     <r>
-      <t>自宅オンブレミスの環境は、サーバーを設置している</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>LANが集合住宅</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>の一部となっており、</t>
-    </r>
-    <rPh sb="0" eb="2">
-      <t>ジタク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セッティ</t>
-    </rPh>
-    <rPh sb="28" eb="32">
-      <t>シュウゴウ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イチブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -247,6 +193,69 @@
     <t>2.インフラネットワーク構成図</t>
     <rPh sb="12" eb="15">
       <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・サーバーサイドAPI：画面を持たない、DBありのシステム</t>
+    <rPh sb="12" eb="14">
+      <t>ガメn</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>モタナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>自宅オンブレミスの環境は、サーバーを設置している</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LANが集合住宅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>の一部となっており、通常は外部と通信ができないため、</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッティ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>シュウゴウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ツウジョウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ツウシンヘ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2963,8 +2972,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="134" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -3002,37 +3011,37 @@
     </row>
     <row r="6" spans="1:6" customFormat="1">
       <c r="C6" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="C7" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="C9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="C10" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/インフラネットワーク構成説明/インフラネットワーク構成図.xlsx
+++ b/インフラネットワーク構成説明/インフラネットワーク構成図.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nishidayuki/Desktop/気象データ明細出力_システム全容doc/インフラネットワーク構成説明/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A27AA2-011A-FD4D-9044-6C53BEB57280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{515926B7-02A7-1641-BA45-B148BC9EDD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -152,44 +152,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VPN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>を通すことで外部との通信を実現しています。</t>
-    </r>
-    <rPh sb="4" eb="5">
-      <t>トオス</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ツウシn</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジツゲn</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>2.インフラネットワーク構成図</t>
     <rPh sb="12" eb="15">
       <t>コウセイ</t>
@@ -256,6 +218,68 @@
     </rPh>
     <rPh sb="48" eb="50">
       <t>ツウシンヘ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VPN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>を通すことで外部との通信を実現しています。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(VPNを通すことで、集合住宅LANのルーターが通信を遮断しないようになります。)</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>トオス</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツウシn</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジツゲn</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>トオスコ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>シュウゴウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ツウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>シャダn</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -467,8 +491,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="4245364"/>
-          <a:ext cx="1058990" cy="1707941"/>
+          <a:off x="0" y="4272280"/>
+          <a:ext cx="1059180" cy="1717040"/>
           <a:chOff x="477521" y="4064000"/>
           <a:chExt cx="1056640" cy="1757680"/>
         </a:xfrm>
@@ -634,8 +658,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1355982" y="4442346"/>
-          <a:ext cx="1752220" cy="1273336"/>
+          <a:off x="1356361" y="4470400"/>
+          <a:ext cx="1752599" cy="1280160"/>
           <a:chOff x="1981201" y="4399280"/>
           <a:chExt cx="1747519" cy="1310640"/>
         </a:xfrm>
@@ -872,8 +896,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3405192" y="4462666"/>
-          <a:ext cx="1231711" cy="1147474"/>
+          <a:off x="3406140" y="4490720"/>
+          <a:ext cx="1231900" cy="1153160"/>
           <a:chOff x="3972560" y="4470400"/>
           <a:chExt cx="1229360" cy="1178560"/>
         </a:xfrm>
@@ -1054,8 +1078,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3669353" y="6251888"/>
-          <a:ext cx="774510" cy="869211"/>
+          <a:off x="3670301" y="6289040"/>
+          <a:ext cx="774699" cy="873760"/>
           <a:chOff x="6685281" y="6431280"/>
           <a:chExt cx="772159" cy="894080"/>
         </a:xfrm>
@@ -1181,8 +1205,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6655635" y="4153924"/>
-          <a:ext cx="5690433" cy="3286077"/>
+          <a:off x="6657341" y="4180840"/>
+          <a:ext cx="5692139" cy="3302000"/>
           <a:chOff x="5872481" y="6350000"/>
           <a:chExt cx="5669279" cy="3373120"/>
         </a:xfrm>
@@ -1640,6 +1664,14 @@
                 <a:defRPr/>
               </a:pPr>
               <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>仮想</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -1906,6 +1938,14 @@
                 <a:tabLst/>
                 <a:defRPr/>
               </a:pPr>
+              <a:r>
+                <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>仮想</a:t>
+              </a:r>
               <a:r>
                 <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
                   <a:solidFill>
@@ -2972,8 +3012,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -3011,7 +3051,7 @@
     </row>
     <row r="6" spans="1:6" customFormat="1">
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3031,17 +3071,17 @@
     </row>
     <row r="12" spans="1:6">
       <c r="C12" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="C13" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
